--- a/questions.xlsx
+++ b/questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>network</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>work group and domain</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -197,23 +200,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,55 +498,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -551,39 +554,39 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -703,7 +706,7 @@
       <c r="A60" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B62" t="s">
@@ -711,103 +714,103 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="B64" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="B65" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -818,7 +821,7 @@
       <c r="A95" s="5"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -835,7 +838,7 @@
       <c r="A100" s="5"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B102" t="s">
@@ -843,13 +846,13 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="4"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B106" t="s">
@@ -857,72 +860,77 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="4"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A87:A92"/>
     <mergeCell ref="A119:A122"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="A106:A110"/>
     <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A42:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>network</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>hariprasad</t>
   </si>
 </sst>
 </file>
@@ -206,9 +209,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,6 +216,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -519,34 +522,34 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -554,31 +557,31 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -591,56 +594,56 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
@@ -648,36 +651,36 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B54" t="s">
@@ -685,28 +688,28 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B62" t="s">
@@ -714,131 +717,131 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="7"/>
       <c r="B63" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="7"/>
       <c r="B64" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="7"/>
       <c r="B65" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="7"/>
       <c r="B66" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="7"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="7"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="7"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="7"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="7"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="7"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="7"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="7"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="7"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="7"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="7"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="7"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B102" t="s">
@@ -846,13 +849,13 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="7"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="7"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B106" t="s">
@@ -860,77 +863,80 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="7"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="7"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A87:A92"/>
     <mergeCell ref="A48:A51"/>
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A112:A116"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
